--- a/assets/EQ_Shelter.xlsx
+++ b/assets/EQ_Shelter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEC\Desktop\senior_project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE4C991-175F-482E-B9AF-75D02D4A3DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD658985-B645-4679-953F-001A5A477075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="1380" windowWidth="20796" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1848" windowWidth="20796" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서울시 지진옥외대피소" sheetId="1" r:id="rId1"/>
@@ -10051,16 +10051,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A1274" sqref="A1274"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I1026" sqref="I1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.296875" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="8.3984375" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
     <col min="10" max="10" width="13.796875" customWidth="1"/>
     <col min="11" max="11" width="16.8984375" customWidth="1"/>
   </cols>
